--- a/data/trans_bre/P5_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P5_R-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 15,25</t>
+          <t>-8,02; 16,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 21,63</t>
+          <t>-5,79; 22,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-24,07; 1,97</t>
+          <t>-23,2; 1,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,45; 2,3</t>
+          <t>-10,96; 2,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-23,61; 74,87</t>
+          <t>-24,82; 78,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,39; 65,56</t>
+          <t>-12,26; 71,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-44,14; 4,4</t>
+          <t>-42,66; 3,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-97,26; 119,66</t>
+          <t>-95,72; 122,39</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 9,75</t>
+          <t>-1,33; 9,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 3,12</t>
+          <t>-8,91; 3,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 9,14</t>
+          <t>-2,4; 9,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 2,4</t>
+          <t>-3,9; 2,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 30,62</t>
+          <t>-3,54; 30,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-20,56; 8,82</t>
+          <t>-20,8; 8,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 28,16</t>
+          <t>-6,19; 27,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-39,69; 44,36</t>
+          <t>-38,94; 43,77</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,23; 10,95</t>
+          <t>2,39; 10,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 5,01</t>
+          <t>-3,71; 5,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 3,65</t>
+          <t>-4,36; 3,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 6,25</t>
+          <t>-0,01; 6,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,1; 39,76</t>
+          <t>7,33; 39,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,76; 16,94</t>
+          <t>-10,83; 17,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-13,18; 12,88</t>
+          <t>-13,47; 12,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 66,87</t>
+          <t>-0,73; 69,03</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 4,29</t>
+          <t>-5,1; 4,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 6,7</t>
+          <t>-3,88; 6,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 5,74</t>
+          <t>-4,65; 5,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 36,13</t>
+          <t>-0,66; 35,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-16,48; 16,77</t>
+          <t>-16,65; 17,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-8,82; 18,48</t>
+          <t>-9,65; 18,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-11,81; 15,7</t>
+          <t>-11,13; 16,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 235,14</t>
+          <t>-3,89; 207,26</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,54; 11,64</t>
+          <t>3,74; 11,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 3,37</t>
+          <t>-6,25; 2,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 6,19</t>
+          <t>-2,7; 6,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 6,02</t>
+          <t>-2,44; 5,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,76; 45,96</t>
+          <t>12,81; 45,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,55; 7,0</t>
+          <t>-12,13; 6,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 17,26</t>
+          <t>-6,78; 17,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 20,18</t>
+          <t>-7,19; 18,5</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,5; 6,96</t>
+          <t>2,69; 7,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 2,37</t>
+          <t>-2,2; 2,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 2,88</t>
+          <t>-1,57; 2,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,92; 12,86</t>
+          <t>0,94; 11,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,29; 24,77</t>
+          <t>8,83; 25,46</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 6,19</t>
+          <t>-5,41; 6,32</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 8,25</t>
+          <t>-4,25; 8,43</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,85; 73,1</t>
+          <t>4,73; 65,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P5_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P5_R-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 16,2</t>
+          <t>-7,61; 15,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 22,16</t>
+          <t>-4,33; 21,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-23,2; 1,55</t>
+          <t>-23,92; 2,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-24,82; 78,27</t>
+          <t>-22,62; 78,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,26; 71,82</t>
+          <t>-9,72; 66,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-42,66; 3,72</t>
+          <t>-43,49; 4,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 9,72</t>
+          <t>-1,31; 10,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,91; 3,08</t>
+          <t>-8,24; 3,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 9,16</t>
+          <t>-2,97; 8,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 30,78</t>
+          <t>-3,26; 32,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-20,8; 8,43</t>
+          <t>-19,62; 9,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 27,65</t>
+          <t>-7,11; 27,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,39; 10,98</t>
+          <t>2,47; 11,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 5,01</t>
+          <t>-3,81; 4,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 3,55</t>
+          <t>-4,08; 3,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,33; 39,81</t>
+          <t>7,67; 39,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,83; 17,17</t>
+          <t>-11,11; 16,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-13,47; 12,38</t>
+          <t>-12,44; 12,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 4,49</t>
+          <t>-5,26; 4,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 6,65</t>
+          <t>-3,39; 7,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 5,98</t>
+          <t>-4,76; 4,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-16,65; 17,76</t>
+          <t>-17,13; 16,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-9,65; 18,76</t>
+          <t>-8,47; 21,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-11,13; 16,44</t>
+          <t>-11,36; 13,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,74; 11,7</t>
+          <t>3,36; 11,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 2,89</t>
+          <t>-6,27; 3,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 6,2</t>
+          <t>-2,53; 6,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>12,81; 45,61</t>
+          <t>11,71; 47,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,13; 6,05</t>
+          <t>-11,98; 6,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,78; 17,33</t>
+          <t>-6,22; 18,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,69; 7,26</t>
+          <t>2,72; 7,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 2,46</t>
+          <t>-2,25; 2,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 2,92</t>
+          <t>-1,64; 2,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,83; 25,46</t>
+          <t>8,81; 25,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 6,32</t>
+          <t>-5,62; 6,59</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 8,43</t>
+          <t>-4,49; 8,36</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">

--- a/data/trans_bre/P5_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P5_R-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con algún problema medioambiental importante en la zona de residencia</t>
+          <t>Población con algún problema medioambiental en la zona de residencia</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 15,86</t>
+          <t>-8,26; 15,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 21,57</t>
+          <t>-5,78; 21,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-23,92; 2,21</t>
+          <t>-24,07; 1,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,96; 2,2</t>
+          <t>-11,45; 2,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-22,62; 78,25</t>
+          <t>-23,61; 74,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,72; 66,14</t>
+          <t>-12,39; 65,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-43,49; 4,8</t>
+          <t>-44,14; 4,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-95,72; 122,39</t>
+          <t>-97,26; 119,66</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 10,25</t>
+          <t>-1,36; 9,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 3,23</t>
+          <t>-8,72; 3,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 8,97</t>
+          <t>-2,29; 9,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 2,25</t>
+          <t>-3,75; 2,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 32,44</t>
+          <t>-3,78; 30,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-19,62; 9,04</t>
+          <t>-20,56; 8,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 27,68</t>
+          <t>-5,9; 28,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-38,94; 43,77</t>
+          <t>-39,69; 44,36</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,47; 11,08</t>
+          <t>2,23; 10,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 4,8</t>
+          <t>-4,02; 5,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 3,71</t>
+          <t>-4,29; 3,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 6,72</t>
+          <t>-0,15; 6,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,67; 39,85</t>
+          <t>7,1; 39,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,11; 16,35</t>
+          <t>-11,76; 16,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-12,44; 12,99</t>
+          <t>-13,18; 12,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 69,03</t>
+          <t>-1,68; 66,87</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 4,18</t>
+          <t>-5,09; 4,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 7,51</t>
+          <t>-3,64; 6,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 4,92</t>
+          <t>-5,04; 5,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 35,24</t>
+          <t>-0,16; 36,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-17,13; 16,66</t>
+          <t>-16,48; 16,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 21,75</t>
+          <t>-8,82; 18,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-11,36; 13,58</t>
+          <t>-11,81; 15,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 207,26</t>
+          <t>-0,28; 235,14</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,36; 11,75</t>
+          <t>3,54; 11,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 3,03</t>
+          <t>-6,04; 3,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 6,45</t>
+          <t>-2,72; 6,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 5,63</t>
+          <t>-2,68; 6,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,71; 47,09</t>
+          <t>11,76; 45,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,98; 6,24</t>
+          <t>-11,55; 7,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 18,39</t>
+          <t>-6,76; 17,26</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 18,5</t>
+          <t>-7,37; 20,18</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,72; 7,25</t>
+          <t>2,5; 6,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 2,51</t>
+          <t>-2,15; 2,37</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 2,98</t>
+          <t>-1,76; 2,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,94; 11,92</t>
+          <t>0,92; 12,86</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,81; 25,37</t>
+          <t>8,29; 24,77</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 6,59</t>
+          <t>-5,26; 6,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 8,36</t>
+          <t>-4,78; 8,25</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,73; 65,43</t>
+          <t>4,85; 73,1</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P5_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P5_R-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,63</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,73</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-11,72</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-4,9</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>13,07%</t>
+          <t>11,99%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>22,34%</t>
+          <t>-2,21%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-23,9%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-63,07%</t>
+          <t>-17,15%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 15,25</t>
+          <t>-0,97; 9,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 21,63</t>
+          <t>-5,76; 4,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-24,07; 1,97</t>
+          <t>-4,7; 6,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,45; 2,3</t>
+          <t>-4,11; 1,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-23,61; 74,87</t>
+          <t>-2,81; 29,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,39; 65,56</t>
+          <t>-13,99; 13,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-44,14; 4,4</t>
+          <t>-11,46; 18,38</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-97,26; 119,66</t>
+          <t>-44,35; 24,61</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,07</t>
+          <t>6,61</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,7</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,33</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>11,76%</t>
+          <t>22,25%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-6,95%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>-1,23%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-5,62%</t>
+          <t>46,05%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 9,75</t>
+          <t>2,23; 10,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 3,12</t>
+          <t>-4,02; 5,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 9,14</t>
+          <t>-4,29; 3,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 2,4</t>
+          <t>0,47; 9,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 30,62</t>
+          <t>7,1; 39,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-20,56; 8,82</t>
+          <t>-11,76; 16,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 28,16</t>
+          <t>-13,18; 12,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-39,69; 44,36</t>
+          <t>0,96; 180,54</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,61</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,05</t>
+          <t>18,07</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>22,25%</t>
+          <t>-1,59%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,23%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>27,32%</t>
+          <t>98,04%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,23; 10,95</t>
+          <t>-5,09; 4,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 5,01</t>
+          <t>-3,64; 6,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 3,65</t>
+          <t>-5,04; 5,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 6,25</t>
+          <t>-1,13; 49,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,1; 39,76</t>
+          <t>-16,48; 16,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,76; 16,94</t>
+          <t>-8,82; 18,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-13,18; 12,88</t>
+          <t>-11,81; 15,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 66,87</t>
+          <t>-5,74; 331,19</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>7,58</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>-1,51</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,28</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-1,59%</t>
+          <t>27,58%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>-3,02%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>61,18%</t>
+          <t>-0,74%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 4,29</t>
+          <t>3,54; 11,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 6,7</t>
+          <t>-6,04; 3,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 5,74</t>
+          <t>-2,72; 6,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 36,13</t>
+          <t>-6,65; 4,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-16,48; 16,77</t>
+          <t>11,76; 45,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-8,82; 18,48</t>
+          <t>-11,55; 7,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-11,81; 15,7</t>
+          <t>-6,76; 17,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 235,14</t>
+          <t>-19,66; 14,87</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,58</t>
+          <t>4,88</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,67</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>6,39</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>27,58%</t>
+          <t>16,54%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,02%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>37,2%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,54; 11,64</t>
+          <t>2,5; 6,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 3,37</t>
+          <t>-2,15; 2,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 6,19</t>
+          <t>-1,76; 2,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 6,02</t>
+          <t>1,02; 21,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,76; 45,96</t>
+          <t>8,29; 24,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,55; 7,0</t>
+          <t>-5,26; 6,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 17,26</t>
+          <t>-4,78; 8,25</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 20,18</t>
+          <t>5,52; 132,11</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>4,88</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,14</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,63</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>4,03</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>16,54%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,35%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>1,76%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>22,14%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>2,5; 6,96</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-2,15; 2,37</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-1,76; 2,88</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0,92; 12,86</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>8,29; 24,77</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-5,26; 6,19</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-4,78; 8,25</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>4,85; 73,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
